--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="258">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>B-lymfobl. leukæmi/lymfom m. t(1;19); TCF3-PBX1</t>
+  </si>
+  <si>
+    <t>M98233</t>
+  </si>
+  <si>
+    <t>kronisk lymfocytær leukæmi</t>
   </si>
   <si>
     <t>M98273</t>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2212,7 +2218,7 @@
         <v>197</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -2220,13 +2226,13 @@
         <v>39</v>
       </c>
       <c r="B81" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="D81" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -2234,13 +2240,13 @@
         <v>39</v>
       </c>
       <c r="B82" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="D82" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -2248,13 +2254,13 @@
         <v>39</v>
       </c>
       <c r="B83" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="D83" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -2262,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="B84" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="D84" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -2276,13 +2282,13 @@
         <v>39</v>
       </c>
       <c r="B85" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C85" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="D85" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="86">
@@ -2290,13 +2296,13 @@
         <v>39</v>
       </c>
       <c r="B86" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="D86" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="87">
@@ -2304,13 +2310,13 @@
         <v>39</v>
       </c>
       <c r="B87" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="D87" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="88">
@@ -2318,13 +2324,13 @@
         <v>39</v>
       </c>
       <c r="B88" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C88" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="D88" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="89">
@@ -2332,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B89" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="D89" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="D89" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="90">
@@ -2346,13 +2352,13 @@
         <v>39</v>
       </c>
       <c r="B90" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="D90" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -2360,13 +2366,13 @@
         <v>39</v>
       </c>
       <c r="B91" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="D91" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="92">
@@ -2374,13 +2380,13 @@
         <v>39</v>
       </c>
       <c r="B92" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="D92" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="93">
@@ -2388,13 +2394,13 @@
         <v>39</v>
       </c>
       <c r="B93" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C93" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="D93" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="D93" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="94">
@@ -2402,13 +2408,13 @@
         <v>39</v>
       </c>
       <c r="B94" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C94" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="D94" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="95">
@@ -2416,13 +2422,13 @@
         <v>39</v>
       </c>
       <c r="B95" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="D95" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="96">
@@ -2430,13 +2436,13 @@
         <v>39</v>
       </c>
       <c r="B96" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="D96" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="97">
@@ -2444,13 +2450,13 @@
         <v>39</v>
       </c>
       <c r="B97" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C97" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="D97" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="98">
@@ -2458,13 +2464,13 @@
         <v>39</v>
       </c>
       <c r="B98" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="D98" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="D98" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="99">
@@ -2472,13 +2478,27 @@
         <v>39</v>
       </c>
       <c r="B99" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="D99" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="D99" t="s" s="2">
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>255</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-PatobankSNOMED.xlsx
+++ b/fhir/CodeSystem-PatobankSNOMED.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
